--- a/apri_pi15_outa_2015.xlsx
+++ b/apri_pi15_outa_2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nestor/Documents/@Machine Learning/0- CCT/CA 2 project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1F5EC-6704-AB47-8A3D-907738C3C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA8C482-CCA6-BA40-81F0-3587969827CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="80">
-  <si>
-    <t>Price indices of agricultural products, output (2015 = 100) - annual data [APRI_PI15_OUTA__custom_4117836]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="76">
+  <si>
+    <t>Price indices of agricultural products, output (2015 = 100) - annual data [APRI_PI15_OUTA__custom_4153998]</t>
   </si>
   <si>
     <t>Open product page</t>
@@ -78,7 +78,7 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>Nominal index</t>
+    <t>Real index</t>
   </si>
   <si>
     <t>Index, 2015=100</t>
@@ -105,9 +105,6 @@
     <t>European Union - 27 countries (from 2020)</t>
   </si>
   <si>
-    <t>European Union - 28 countries (2013-2020)</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -216,7 +210,7 @@
     <t>2021</t>
   </si>
   <si>
-    <t>Data extracted on 11/12/2022 15:07:14 from [ESTAT]</t>
+    <t>Data extracted on 14/12/2022 01:06:49 from [ESTAT]</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset: </t>
@@ -237,18 +231,15 @@
     <t>e</t>
   </si>
   <si>
-    <t>f</t>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Special value</t>
   </si>
   <si>
     <t>:</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Special value</t>
-  </si>
-  <si>
     <t>not available</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
   </si>
   <si>
     <t>estimated</t>
-  </si>
-  <si>
-    <t>forecast</t>
   </si>
   <si>
     <t>provisional</t>
@@ -917,7 +905,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1205,23 +1193,23 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
@@ -1229,7 +1217,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>58</v>
@@ -1237,7 +1225,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>59</v>
@@ -1245,7 +1233,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>60</v>
@@ -1253,26 +1241,10 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1282,13 +1254,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1312,12 +1284,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1325,7 +1297,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1367,96 +1339,96 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="G10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="I10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="K10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="M10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="O10" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1467,1401 +1439,1346 @@
         <v>100</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="15">
+        <v>98.46</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="15">
+        <v>103.97</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="15">
+        <v>102.97</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="15">
+        <v>103.43</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="15">
+        <v>102.46</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="15">
+        <v>108.96</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="15">
-        <v>98.58</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="15">
-        <v>105.66</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="19">
-        <v>106.5</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="15">
-        <v>108.53</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="19">
-        <v>108.2</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="15">
-        <v>118.25</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="19">
+        <v>27</v>
+      </c>
+      <c r="B13" s="18">
         <v>100</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="15">
-        <v>103.46</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="15">
-        <v>109.06</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="15">
-        <v>117.38</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="15">
-        <v>116.45</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="15">
-        <v>112.47</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="15">
-        <v>124.14</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>68</v>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="14">
+        <v>101.66</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="14">
+        <v>104.84</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="14">
+        <v>110.28</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="14">
+        <v>108.05</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="14">
+        <v>103.92</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="14">
+        <v>111.13</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="18">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19">
         <v>100</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="18">
-        <v>94.8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="18">
-        <v>94.8</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="14">
-        <v>95.85</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="18">
-        <v>97.3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="14">
-        <v>105.46</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="14">
-        <v>126.78</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>68</v>
+      <c r="C14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="15">
+        <v>96.07</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="15">
+        <v>94.94</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="15">
+        <v>93.53</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="15">
+        <v>92.68</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="15">
+        <v>99.24</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="15">
+        <v>115.99</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="19">
+        <v>29</v>
+      </c>
+      <c r="B15" s="18">
         <v>100</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="19">
-        <v>94.2</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="19">
-        <v>101.2</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="19">
-        <v>101.2</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="19">
-        <v>106.3</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="19">
-        <v>102.8</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="19">
-        <v>109.9</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>68</v>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="14">
+        <v>93.55</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="14">
+        <v>98.16</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="14">
+        <v>96.29</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="14">
+        <v>98.61</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="14">
+        <v>92.28</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="14">
+        <v>95.48</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="18">
+        <v>30</v>
+      </c>
+      <c r="B16" s="19">
         <v>100</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="15">
         <v>94.66</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="18">
-        <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="14">
-        <v>98.26</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="14">
-        <v>105.51</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="14">
-        <v>106.63</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" s="14">
-        <v>109.41</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
+      <c r="E16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="15">
+        <v>102.87</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="15">
+        <v>96.52</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="15">
+        <v>102.94</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="15">
+        <v>103.62</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="19">
+        <v>104.3</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="19">
+        <v>31</v>
+      </c>
+      <c r="B17" s="18">
         <v>100</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="19">
-        <v>98.7</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="19">
-        <v>108.6</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="19">
-        <v>109</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="19">
-        <v>111.6</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="19">
-        <v>107.8</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="19">
-        <v>117.5</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>73</v>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="14">
+        <v>98.31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="14">
+        <v>106.37</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="14">
+        <v>104.81</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="14">
+        <v>105.78</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="14">
+        <v>101.89</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="18">
+        <v>107.6</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="18">
+        <v>32</v>
+      </c>
+      <c r="B18" s="19">
         <v>100</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="14">
-        <v>97.37</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="14">
-        <v>111.33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="14">
-        <v>113.71</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="14">
-        <v>115.44</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L18" s="14">
-        <v>111.58</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="14">
-        <v>129.83000000000001</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>68</v>
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="19">
+        <v>96.6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="15">
+        <v>106.56</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="15">
+        <v>105.24</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="15">
+        <v>104.47</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="15">
+        <v>101.62</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="15">
+        <v>113.17</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="19">
+        <v>33</v>
+      </c>
+      <c r="B19" s="18">
         <v>100</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="15">
-        <v>95.12</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="15">
-        <v>106.43</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="15">
-        <v>104.32</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="15">
-        <v>103.17</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="15">
-        <v>103.94</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="15">
-        <v>115.93</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>68</v>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="14">
+        <v>95.31</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="14">
+        <v>106.32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="14">
+        <v>103.49</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="14">
+        <v>101.45</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="14">
+        <v>102.71</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="18">
+        <v>111.9</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="18">
+        <v>34</v>
+      </c>
+      <c r="B20" s="19">
         <v>100</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="14">
-        <v>98.06</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="14">
-        <v>99.71</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="14">
-        <v>99.67</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="14">
-        <v>100.12</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="14">
-        <v>98.97</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="14">
-        <v>109.46</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>68</v>
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="15">
+        <v>98.04</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="15">
+        <v>98.58</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="15">
+        <v>97.77</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="15">
+        <v>97.72</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="15">
+        <v>97.83</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="15">
+        <v>107.58</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="19">
+        <v>35</v>
+      </c>
+      <c r="B21" s="18">
         <v>100</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="15">
-        <v>96.32</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="15">
-        <v>103.47</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="15">
-        <v>102.88</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="19">
-        <v>98.6</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="19">
-        <v>98.8</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" s="15">
-        <v>107.68</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>68</v>
+      <c r="C21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="14">
+        <v>96.65</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="14">
+        <v>101.75</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="14">
+        <v>99.44</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="14">
+        <v>94.57</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="14">
+        <v>95.08</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="18">
+        <v>100.6</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="18">
+        <v>36</v>
+      </c>
+      <c r="B22" s="19">
         <v>100</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="14">
-        <v>100.14</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="14">
-        <v>103.73</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="14">
-        <v>105.84</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="14">
-        <v>108.01</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="14">
-        <v>108.57</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N22" s="14">
-        <v>118.44</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>68</v>
+      <c r="C22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="15">
+        <v>99.83</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="15">
+        <v>102.22</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="15">
+        <v>102.16</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="15">
+        <v>102.92</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="15">
+        <v>102.91</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="15">
+        <v>109.99</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="19">
+        <v>37</v>
+      </c>
+      <c r="B23" s="18">
         <v>100</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="15">
-        <v>97.94</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="15">
-        <v>102.38</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="15">
-        <v>101.74</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="15">
-        <v>102.49</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="15">
-        <v>102.98</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N23" s="15">
-        <v>115.96</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>68</v>
+      <c r="C23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="14">
+        <v>98.56</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="18">
+        <v>101.7</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="14">
+        <v>99.52</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="14">
+        <v>99.47</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="14">
+        <v>99.92</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="14">
+        <v>109.58</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="18">
+        <v>38</v>
+      </c>
+      <c r="B24" s="19">
         <v>100</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="18">
-        <v>97</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="18">
-        <v>105</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="18">
-        <v>106</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J24" s="18">
-        <v>107.2</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24" s="18">
-        <v>108.1</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N24" s="18">
-        <v>117.4</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>68</v>
+      <c r="C24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="19">
+        <v>97.1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="15">
+        <v>103.65</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="15">
+        <v>103.41</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="15">
+        <v>103.88</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="15">
+        <v>104.95</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="15">
+        <v>111.81</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="19">
+        <v>39</v>
+      </c>
+      <c r="B25" s="18">
         <v>100</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="15">
-        <v>98.44</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="15">
-        <v>100.93</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="15">
-        <v>100.03</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="15">
-        <v>105.87</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="15">
-        <v>101.86</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N25" s="15">
-        <v>98.52</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>68</v>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="14">
+        <v>99.66</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="14">
+        <v>101.49</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="18">
+        <v>99.8</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="14">
+        <v>105.05</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="18">
+        <v>102.2</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="14">
+        <v>96.66</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="18">
+        <v>40</v>
+      </c>
+      <c r="B26" s="19">
         <v>100</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="14">
-        <v>98.55</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="14">
-        <v>110.52</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="18">
-        <v>117.1</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="14">
-        <v>119.34</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="14">
-        <v>116.92</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N26" s="14">
-        <v>136.19</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>68</v>
+      <c r="C26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="15">
+        <v>98.45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="19">
+        <v>107.3</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="15">
+        <v>110.86</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="15">
+        <v>109.96</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="15">
+        <v>107.64</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="15">
+        <v>121.45</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="19">
+        <v>41</v>
+      </c>
+      <c r="B27" s="18">
         <v>100</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="15">
-        <v>93.27</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="15">
-        <v>104.74</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="15">
-        <v>107.45</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="15">
-        <v>111.97</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="15">
-        <v>110.39</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N27" s="15">
-        <v>127.65</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>68</v>
+      <c r="C27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="14">
+        <v>92.64</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="14">
+        <v>100.31</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="14">
+        <v>100.35</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="14">
+        <v>102.28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="14">
+        <v>99.78</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="14">
+        <v>110.28</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="18">
+        <v>42</v>
+      </c>
+      <c r="B28" s="19">
         <v>100</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="14">
-        <v>98.04</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="14">
-        <v>109.41</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="14">
-        <v>106.31</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="18">
-        <v>108.3</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L28" s="14">
-        <v>107.01</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28" s="14">
-        <v>112.21</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>68</v>
+      <c r="C28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="19">
+        <v>98</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="15">
+        <v>107.11</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="15">
+        <v>102.02</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" s="15">
+        <v>102.24</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="15">
+        <v>101.02</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="15">
+        <v>102.37</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="19">
+        <v>43</v>
+      </c>
+      <c r="B29" s="18">
         <v>100</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="15">
-        <v>96.44</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="15">
-        <v>101.35</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="15">
-        <v>104.04</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="15">
-        <v>109.72</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="19">
-        <v>118</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N29" s="15">
-        <v>141.62</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>68</v>
+      <c r="C29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="14">
+        <v>96.01</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="14">
+        <v>98.55</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="18">
+        <v>98.3</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="14">
+        <v>100.24</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="14">
+        <v>104.29</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="14">
+        <v>118.97</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="18">
+        <v>44</v>
+      </c>
+      <c r="B30" s="19">
         <v>100</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="18">
-        <v>101.6</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="14">
-        <v>99.57</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="14">
-        <v>100.21</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="14">
-        <v>109.67</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="14">
-        <v>108.73</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N30" s="14">
-        <v>111.56</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>68</v>
+      <c r="C30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="15">
+        <v>100.69</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="15">
+        <v>97.45</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="19">
+        <v>96.4</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="15">
+        <v>103.91</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="15">
+        <v>102.22</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="15">
+        <v>104.14</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="19">
+        <v>45</v>
+      </c>
+      <c r="B31" s="18">
         <v>100</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="19">
-        <v>100.3</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="19">
-        <v>107.5</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="19">
-        <v>105.3</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="19">
-        <v>108.7</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="19">
-        <v>103.1</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N31" s="19">
-        <v>112.8</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>68</v>
+      <c r="C31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="14">
+        <v>100.19</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="14">
+        <v>106.02</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="14">
+        <v>102.21</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="14">
+        <v>102.76</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" s="14">
+        <v>96.39</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="14">
+        <v>102.56</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="18">
+        <v>46</v>
+      </c>
+      <c r="B32" s="19">
         <v>100</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="15">
+        <v>98.05</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="15">
+        <v>103.47</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="15">
+        <v>100.09</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="15">
+        <v>100.58</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" s="15">
+        <v>99.94</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="15">
+        <v>105.78</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="D32" s="18">
-        <v>99</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="18">
-        <v>106.8</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="18">
-        <v>105.5</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" s="18">
-        <v>107.6</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L32" s="18">
-        <v>108.4</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N32" s="18">
-        <v>117.9</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="19">
+        <v>47</v>
+      </c>
+      <c r="B33" s="18">
         <v>100</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="15">
-        <v>100.32</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="15">
-        <v>117.97</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="19">
-        <v>117.2</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="15">
-        <v>125.98</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" s="15">
-        <v>125.32</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N33" s="15">
-        <v>136.02000000000001</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>73</v>
+      <c r="C33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="14">
+        <v>100.52</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="14">
+        <v>116.34</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="14">
+        <v>114.23</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="14">
+        <v>120.21</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="18">
+        <v>115.4</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="18">
+        <v>119</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="18">
+        <v>48</v>
+      </c>
+      <c r="B34" s="19">
         <v>100</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="14">
-        <v>102.42</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="14">
-        <v>105.01</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="14">
-        <v>107.55</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="14">
-        <v>108.29</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L34" s="14">
-        <v>108.69</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N34" s="14">
-        <v>114.83</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>68</v>
+      <c r="C34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="15">
+        <v>101.77</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="15">
+        <v>102.75</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="15">
+        <v>104.01</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="15">
+        <v>104.42</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" s="15">
+        <v>104.93</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="15">
+        <v>109.83</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="19">
+        <v>49</v>
+      </c>
+      <c r="B35" s="18">
         <v>100</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="15">
-        <v>100.71</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="15">
+      <c r="C35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="18">
+        <v>101.8</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="14">
         <v>102.83</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="15">
-        <v>109.01</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" s="15">
-        <v>119.89</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L35" s="15">
-        <v>128.99</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N35" s="15">
-        <v>141.84</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>68</v>
+      <c r="G35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="14">
+        <v>104.74</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="14">
+        <v>110.86</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" s="14">
+        <v>116.55</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="14">
+        <v>123.11</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="18">
+        <v>50</v>
+      </c>
+      <c r="B36" s="19">
         <v>100</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="14">
-        <v>98.19</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="14">
-        <v>106.91</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="18">
-        <v>106.3</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36" s="14">
-        <v>110.27</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L36" s="14">
-        <v>108.05</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N36" s="14">
-        <v>116.99</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>68</v>
+      <c r="C36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="15">
+        <v>98.34</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="15">
+        <v>105.43</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="15">
+        <v>102.84</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="15">
+        <v>104.91</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" s="15">
+        <v>103.08</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="15">
+        <v>109.37</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="19">
+        <v>51</v>
+      </c>
+      <c r="B37" s="18">
         <v>100</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="15">
-        <v>101.83</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="15">
-        <v>106.85</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="19">
-        <v>101.1</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J37" s="15">
-        <v>102.94</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L37" s="15">
-        <v>103.36</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N37" s="15">
-        <v>116.06</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>68</v>
+      <c r="C37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="14">
+        <v>102.32</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="18">
+        <v>105.9</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="14">
+        <v>97.72</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="14">
+        <v>96.81</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="14">
+        <v>95.29</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="14">
+        <v>104.06</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="18">
+        <v>52</v>
+      </c>
+      <c r="B38" s="19">
         <v>100</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="14">
-        <v>97.01</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="14">
-        <v>99.86</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="14">
-        <v>103.28</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J38" s="14">
-        <v>103.11</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L38" s="14">
-        <v>100.77</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38" s="14">
-        <v>107.97</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>68</v>
+      <c r="C38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="15">
+        <v>96.63</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="15">
+        <v>98.65</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="15">
+        <v>100.84</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="15">
+        <v>99.55</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="15">
+        <v>96.91</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="15">
+        <v>101.74</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="19">
+        <v>53</v>
+      </c>
+      <c r="B39" s="18">
         <v>100</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="15">
-        <v>101.76</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="15">
-        <v>109.42</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="15">
-        <v>121.53</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="15">
-        <v>119.95</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" s="15">
-        <v>118.59</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N39" s="15">
-        <v>129.91</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="18">
-        <v>100</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="14">
-        <v>99.77</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="18">
-        <v>110.8</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="14">
-        <v>114.82</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="14">
-        <v>113.35</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="14">
-        <v>118.25</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>68</v>
+      <c r="C39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="14">
+        <v>100.61</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="14">
+        <v>106.21</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="14">
+        <v>115.61</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="14">
+        <v>112.18</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" s="14">
+        <v>110.18</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" s="14">
+        <v>117.58</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
